--- a/biology/Botanique/Corylus_chinensis/Corylus_chinensis.xlsx
+++ b/biology/Botanique/Corylus_chinensis/Corylus_chinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Noisetier de Chine (Corylus chinensis) est un arbre de la famille des Betulaceae[1]. En 1998, cette espèce de noisetier a été évaluée en danger de disparition par l'UICN alors qu'elle n'était que vulnérable en 1997.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Noisetier de Chine (Corylus chinensis) est un arbre de la famille des Betulaceae. En 1998, cette espèce de noisetier a été évaluée en danger de disparition par l'UICN alors qu'elle n'était que vulnérable en 1997.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les arbres de cette espèce peuvent atteindre 40 mètres. Leur écorce est brun-gris, et leurs feuilles, pouvant mesurer de 10 à 18 cm de long, sont alternées, simples, larges et ovales. Le noisetier de Chine produit des grappes de 4 à 6 fruits[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arbres de cette espèce peuvent atteindre 40 mètres. Leur écorce est brun-gris, et leurs feuilles, pouvant mesurer de 10 à 18 cm de long, sont alternées, simples, larges et ovales. Le noisetier de Chine produit des grappes de 4 à 6 fruits.
 			Aspect général
 			Tronc
 </t>
@@ -544,13 +558,50 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite pour la première fois en 1899 par le botaniste français Adrien René Franchet (1834-1900)[3].
-Synonymes
-Corylus chinensis var. macrocarpa Hu[4][5]
-Corylus colurna var. chinensis (Franchet) Burkill[4][5]
-Corylus papyracea Hickel[4][5]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1899 par le botaniste français Adrien René Franchet (1834-1900).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Corylus_chinensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corylus_chinensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Corylus chinensis var. macrocarpa Hu
+Corylus colurna var. chinensis (Franchet) Burkill
+Corylus papyracea Hickel</t>
         </is>
       </c>
     </row>
